--- a/[[ 입출금 내역서 ]]/구글스프레드시트 파일/gagebu.xlsx
+++ b/[[ 입출금 내역서 ]]/구글스프레드시트 파일/gagebu.xlsx
@@ -71,13 +71,13 @@
     </r>
   </si>
   <si>
-    <t>월출금합계</t>
+    <t>월출금합계:</t>
   </si>
   <si>
-    <t>월입금합계</t>
+    <t>월입금합계:</t>
   </si>
   <si>
-    <t>현재총잔고</t>
+    <t>현재총잔고:</t>
   </si>
   <si>
     <r>
@@ -1637,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1869,6 +1869,9 @@
     <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="22" fillId="8" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="16" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
@@ -2025,11 +2028,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1971109853"/>
-        <c:axId val="117990997"/>
+        <c:axId val="987697461"/>
+        <c:axId val="827196457"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1971109853"/>
+        <c:axId val="987697461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,10 +2092,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117990997"/>
+        <c:crossAx val="827196457"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117990997"/>
+        <c:axId val="827196457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1971109853"/>
+        <c:crossAx val="987697461"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2229,11 +2232,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1339905454"/>
-        <c:axId val="1451565846"/>
+        <c:axId val="985432923"/>
+        <c:axId val="153628862"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1339905454"/>
+        <c:axId val="985432923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,10 +2288,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451565846"/>
+        <c:crossAx val="153628862"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1451565846"/>
+        <c:axId val="153628862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2366,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339905454"/>
+        <c:crossAx val="985432923"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2425,11 +2428,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1995747017"/>
-        <c:axId val="401606751"/>
+        <c:axId val="192521251"/>
+        <c:axId val="392435018"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1995747017"/>
+        <c:axId val="192521251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,10 +2492,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401606751"/>
+        <c:crossAx val="392435018"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401606751"/>
+        <c:axId val="392435018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2570,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1995747017"/>
+        <c:crossAx val="192521251"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2629,11 +2632,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1703963163"/>
-        <c:axId val="1328222128"/>
+        <c:axId val="1980315502"/>
+        <c:axId val="299444768"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1703963163"/>
+        <c:axId val="1980315502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,10 +2688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328222128"/>
+        <c:crossAx val="299444768"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1328222128"/>
+        <c:axId val="299444768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1703963163"/>
+        <c:crossAx val="1980315502"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2825,11 +2828,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2051901752"/>
-        <c:axId val="1998170418"/>
+        <c:axId val="2129132349"/>
+        <c:axId val="1543196788"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2051901752"/>
+        <c:axId val="2129132349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,10 +2892,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998170418"/>
+        <c:crossAx val="1543196788"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1998170418"/>
+        <c:axId val="1543196788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +2970,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051901752"/>
+        <c:crossAx val="2129132349"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3029,11 +3032,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1114708334"/>
-        <c:axId val="2090282542"/>
+        <c:axId val="1878546055"/>
+        <c:axId val="32210371"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1114708334"/>
+        <c:axId val="1878546055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,10 +3088,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090282542"/>
+        <c:crossAx val="32210371"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090282542"/>
+        <c:axId val="32210371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3166,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1114708334"/>
+        <c:crossAx val="1878546055"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3225,11 +3228,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1497253541"/>
-        <c:axId val="2033254292"/>
+        <c:axId val="2053791407"/>
+        <c:axId val="712578397"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1497253541"/>
+        <c:axId val="2053791407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,10 +3292,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033254292"/>
+        <c:crossAx val="712578397"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033254292"/>
+        <c:axId val="712578397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3370,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1497253541"/>
+        <c:crossAx val="2053791407"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3429,11 +3432,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1673142248"/>
-        <c:axId val="1117390030"/>
+        <c:axId val="1701870274"/>
+        <c:axId val="784194972"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1673142248"/>
+        <c:axId val="1701870274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,10 +3488,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117390030"/>
+        <c:crossAx val="784194972"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1117390030"/>
+        <c:axId val="784194972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,7 +3566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1673142248"/>
+        <c:crossAx val="1701870274"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3625,11 +3628,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1652511788"/>
-        <c:axId val="1418026686"/>
+        <c:axId val="982487894"/>
+        <c:axId val="1781887770"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1652511788"/>
+        <c:axId val="982487894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,10 +3692,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1418026686"/>
+        <c:crossAx val="1781887770"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1418026686"/>
+        <c:axId val="1781887770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3767,7 +3770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652511788"/>
+        <c:crossAx val="982487894"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3829,11 +3832,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1632749387"/>
-        <c:axId val="1651913190"/>
+        <c:axId val="437501902"/>
+        <c:axId val="1296192925"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1632749387"/>
+        <c:axId val="437501902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3885,10 +3888,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651913190"/>
+        <c:crossAx val="1296192925"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1651913190"/>
+        <c:axId val="1296192925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +3966,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632749387"/>
+        <c:crossAx val="437501902"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4025,11 +4028,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="494502138"/>
-        <c:axId val="549030064"/>
+        <c:axId val="553617227"/>
+        <c:axId val="1510064513"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="494502138"/>
+        <c:axId val="553617227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,10 +4092,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549030064"/>
+        <c:crossAx val="1510064513"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="549030064"/>
+        <c:axId val="1510064513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +4170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494502138"/>
+        <c:crossAx val="553617227"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4239,11 +4242,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="468409435"/>
-        <c:axId val="204661836"/>
+        <c:axId val="1372592106"/>
+        <c:axId val="892766578"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="468409435"/>
+        <c:axId val="1372592106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,10 +4298,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204661836"/>
+        <c:crossAx val="892766578"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204661836"/>
+        <c:axId val="892766578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,7 +4376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468409435"/>
+        <c:crossAx val="1372592106"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4435,11 +4438,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1020653502"/>
-        <c:axId val="937361876"/>
+        <c:axId val="1981290733"/>
+        <c:axId val="1292923114"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1020653502"/>
+        <c:axId val="1981290733"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,10 +4494,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="937361876"/>
+        <c:crossAx val="1292923114"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="937361876"/>
+        <c:axId val="1292923114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4572,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020653502"/>
+        <c:crossAx val="1981290733"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4631,11 +4634,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="273791863"/>
-        <c:axId val="1012935130"/>
+        <c:axId val="1420159423"/>
+        <c:axId val="1644880780"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="273791863"/>
+        <c:axId val="1420159423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,10 +4698,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1012935130"/>
+        <c:crossAx val="1644880780"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1012935130"/>
+        <c:axId val="1644880780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273791863"/>
+        <c:crossAx val="1420159423"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4835,11 +4838,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1196952885"/>
-        <c:axId val="1797274300"/>
+        <c:axId val="1930420588"/>
+        <c:axId val="1482683296"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1196952885"/>
+        <c:axId val="1930420588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,10 +4894,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1797274300"/>
+        <c:crossAx val="1482683296"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1797274300"/>
+        <c:axId val="1482683296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,7 +4972,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196952885"/>
+        <c:crossAx val="1930420588"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5031,11 +5034,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1429228330"/>
-        <c:axId val="417907172"/>
+        <c:axId val="1237216259"/>
+        <c:axId val="1588778275"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1429228330"/>
+        <c:axId val="1237216259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,10 +5098,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417907172"/>
+        <c:crossAx val="1588778275"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417907172"/>
+        <c:axId val="1588778275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5173,7 +5176,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1429228330"/>
+        <c:crossAx val="1237216259"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5235,11 +5238,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="412515681"/>
-        <c:axId val="1543106092"/>
+        <c:axId val="309861623"/>
+        <c:axId val="1958087636"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="412515681"/>
+        <c:axId val="309861623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5291,10 +5294,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543106092"/>
+        <c:crossAx val="1958087636"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1543106092"/>
+        <c:axId val="1958087636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,7 +5372,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412515681"/>
+        <c:crossAx val="309861623"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5441,11 +5444,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1577087939"/>
-        <c:axId val="2139682154"/>
+        <c:axId val="1427556789"/>
+        <c:axId val="348765822"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1577087939"/>
+        <c:axId val="1427556789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,10 +5508,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139682154"/>
+        <c:crossAx val="348765822"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139682154"/>
+        <c:axId val="348765822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5583,7 +5586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577087939"/>
+        <c:crossAx val="1427556789"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5655,11 +5658,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="522982292"/>
-        <c:axId val="415819699"/>
+        <c:axId val="917122210"/>
+        <c:axId val="1200084588"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="522982292"/>
+        <c:axId val="917122210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5711,10 +5714,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415819699"/>
+        <c:crossAx val="1200084588"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415819699"/>
+        <c:axId val="1200084588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5789,7 +5792,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522982292"/>
+        <c:crossAx val="917122210"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5851,11 +5854,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1763844448"/>
-        <c:axId val="555370010"/>
+        <c:axId val="584490052"/>
+        <c:axId val="1766755141"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1763844448"/>
+        <c:axId val="584490052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,10 +5918,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555370010"/>
+        <c:crossAx val="1766755141"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555370010"/>
+        <c:axId val="1766755141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,7 +5996,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1763844448"/>
+        <c:crossAx val="584490052"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6055,11 +6058,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="694963398"/>
-        <c:axId val="1117454129"/>
+        <c:axId val="1831122939"/>
+        <c:axId val="267180384"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="694963398"/>
+        <c:axId val="1831122939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6111,10 +6114,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117454129"/>
+        <c:crossAx val="267180384"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1117454129"/>
+        <c:axId val="267180384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6192,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694963398"/>
+        <c:crossAx val="1831122939"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6251,11 +6254,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="712052152"/>
-        <c:axId val="1932640896"/>
+        <c:axId val="149701807"/>
+        <c:axId val="327355362"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="712052152"/>
+        <c:axId val="149701807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6315,10 +6318,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1932640896"/>
+        <c:crossAx val="327355362"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1932640896"/>
+        <c:axId val="327355362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6393,7 +6396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712052152"/>
+        <c:crossAx val="149701807"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6455,11 +6458,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1578171691"/>
-        <c:axId val="845589813"/>
+        <c:axId val="703837342"/>
+        <c:axId val="232383188"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1578171691"/>
+        <c:axId val="703837342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6511,10 +6514,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845589813"/>
+        <c:crossAx val="232383188"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="845589813"/>
+        <c:axId val="232383188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6589,7 +6592,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578171691"/>
+        <c:crossAx val="703837342"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6651,11 +6654,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1523666799"/>
-        <c:axId val="1695903329"/>
+        <c:axId val="393348839"/>
+        <c:axId val="1901480474"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1523666799"/>
+        <c:axId val="393348839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6715,10 +6718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695903329"/>
+        <c:crossAx val="1901480474"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1695903329"/>
+        <c:axId val="1901480474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6793,7 +6796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1523666799"/>
+        <c:crossAx val="393348839"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -9821,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -9873,7 +9876,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -11553,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -11605,7 +11608,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -11995,7 +11998,7 @@
       <c r="G21" s="50"/>
       <c r="H21" s="38"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="72"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="34"/>
       <c r="M21" s="35" t="str">
         <f>'항목'!B6</f>
@@ -13285,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -13337,7 +13340,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -14993,274 +14996,274 @@
   <sheetData>
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="36.75" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" ht="39.0" customHeight="1">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="90" t="s">
+      <c r="L4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="93" t="s">
+      <c r="L5" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="M5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="N5" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92" t="s">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96" t="s">
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="21.75" customHeight="1">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92" t="s">
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="96" t="s">
+      <c r="L7" s="96"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="97" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="99" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92" t="s">
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="89" t="s">
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="95"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="95"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="96"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="95"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="96"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
-      <c r="B11" s="98"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
     </row>
     <row r="12" ht="21.75" customHeight="1"/>
     <row r="13" ht="21.75" customHeight="1"/>
@@ -19816,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -21548,7 +21551,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -21600,7 +21603,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -23280,7 +23283,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -23332,7 +23335,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -25012,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -25064,7 +25067,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -26744,7 +26747,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -26796,7 +26799,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
@@ -28476,7 +28479,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I5:I33)</f>
@@ -28528,7 +28531,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>13</v>
